--- a/4조/최종문서/[OWL]체크리스트.xlsx
+++ b/4조/최종문서/[OWL]체크리스트.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.my_repo\OWL\4조\최종문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OWL\4조\최종문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD0D483-9103-414A-9442-6CB061D57B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="153">
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -628,14 +627,18 @@
   </si>
   <si>
     <t>휴지통에서 복원할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,6 +678,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="바탕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -696,7 +706,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -793,21 +803,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -838,21 +833,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1128,7 +1108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1153,145 +1133,139 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1387,23 +1361,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1439,23 +1396,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1631,938 +1571,1145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="B2:E107"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="75.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="75.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="25"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-    </row>
-    <row r="4" spans="2:5" s="14" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="51" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="2:5" s="9" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+    <row r="5" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="28"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="12" t="s">
+      <c r="E5" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="41"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="34" t="s">
+      <c r="E6" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="32"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="27"/>
-      <c r="C8" s="16"/>
+      <c r="E7" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="25"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="27"/>
-      <c r="C9" s="16"/>
+      <c r="E8" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="25"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
-      <c r="C10" s="16"/>
+      <c r="E9" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="25"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="27"/>
-      <c r="C11" s="16"/>
+      <c r="E10" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="25"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="27"/>
-      <c r="C12" s="16"/>
+      <c r="E11" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="25"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
-      <c r="C13" s="16"/>
+      <c r="E12" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="25"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
-      <c r="C14" s="16" t="s">
+      <c r="E13" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="25"/>
+      <c r="C14" s="37" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
-      <c r="C15" s="16"/>
+      <c r="E14" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="25"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
-      <c r="C16" s="16"/>
+      <c r="E15" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="25"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="16"/>
+      <c r="E16" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="25"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
-      <c r="C18" s="16"/>
+      <c r="E17" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="25"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="27"/>
-      <c r="C19" s="16"/>
+      <c r="E18" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="25"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="27"/>
-      <c r="C20" s="16" t="s">
+      <c r="E19" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="25"/>
+      <c r="C20" s="37" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="27"/>
-      <c r="C21" s="16"/>
+      <c r="E20" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="25"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="35"/>
-      <c r="C22" s="36" t="s">
+      <c r="E21" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="26"/>
+      <c r="C22" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="29" t="s">
+      <c r="E22" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="32"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="26"/>
-      <c r="C24" s="16" t="s">
+      <c r="E23" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="40"/>
+      <c r="C24" s="37" t="s">
         <v>97</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="26"/>
-      <c r="C25" s="16"/>
+      <c r="E24" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="40"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="26"/>
-      <c r="C26" s="16" t="s">
+      <c r="E25" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="40"/>
+      <c r="C26" s="37" t="s">
         <v>96</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="28"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="12" t="s">
+      <c r="E26" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="41"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="29" t="s">
+      <c r="E27" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="32"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="26"/>
-      <c r="C29" s="17" t="s">
+      <c r="E28" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="40"/>
+      <c r="C29" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="26"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="15" t="s">
+      <c r="E29" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="40"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="26"/>
-      <c r="C31" s="19" t="s">
+      <c r="E30" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="40"/>
+      <c r="C31" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="26"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="15" t="s">
+      <c r="E31" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="40"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="28"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41" t="s">
+      <c r="E32" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="41"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="29" t="s">
+      <c r="E33" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="26"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="15" t="s">
+      <c r="E34" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="40"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="26"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="15" t="s">
+      <c r="E35" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="40"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="28"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="41" t="s">
+      <c r="E36" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="41"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="34" t="s">
+      <c r="E37" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="32"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="27"/>
-      <c r="C39" s="23"/>
+      <c r="E38" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="25"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="27"/>
-      <c r="C40" s="23"/>
+      <c r="E39" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="25"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="27"/>
-      <c r="C41" s="23"/>
+      <c r="E40" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="25"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="27"/>
-      <c r="C42" s="24"/>
+      <c r="E41" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="25"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="27"/>
-      <c r="C43" s="22" t="s">
+      <c r="E42" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="25"/>
+      <c r="C43" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="27"/>
-      <c r="C44" s="23"/>
+      <c r="E43" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="25"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="27"/>
-      <c r="C45" s="23"/>
+      <c r="E44" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="25"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="35"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="12" t="s">
+      <c r="E45" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="26"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="29" t="s">
+      <c r="E46" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="32"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="26"/>
-      <c r="C48" s="16"/>
+      <c r="E47" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="40"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="26"/>
-      <c r="C49" s="16"/>
+      <c r="E48" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="40"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="26"/>
-      <c r="C50" s="46" t="s">
+      <c r="E49" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="40"/>
+      <c r="C50" s="21" t="s">
         <v>101</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="26"/>
-      <c r="C51" s="47"/>
+      <c r="E50" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="40"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="11"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="26"/>
-      <c r="C52" s="47"/>
+      <c r="E51" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="40"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E52" s="11"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="26"/>
-      <c r="C53" s="47"/>
+      <c r="E52" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="40"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="26"/>
-      <c r="C54" s="47"/>
+      <c r="E53" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="40"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="11"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="26"/>
-      <c r="C55" s="48"/>
+      <c r="E54" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="40"/>
+      <c r="C55" s="23"/>
       <c r="D55" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="11"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="26"/>
-      <c r="C56" s="22" t="s">
+      <c r="E55" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="40"/>
+      <c r="C56" s="27" t="s">
         <v>92</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="11"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="26"/>
-      <c r="C57" s="23"/>
+      <c r="E56" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="40"/>
+      <c r="C57" s="28"/>
       <c r="D57" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="11"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="26"/>
-      <c r="C58" s="23"/>
+      <c r="E57" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="40"/>
+      <c r="C58" s="28"/>
       <c r="D58" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="11"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="26"/>
-      <c r="C59" s="23"/>
+      <c r="E58" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="40"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="26"/>
-      <c r="C60" s="23"/>
+      <c r="E59" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="40"/>
+      <c r="C60" s="28"/>
       <c r="D60" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="26"/>
-      <c r="C61" s="24"/>
+      <c r="E60" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="40"/>
+      <c r="C61" s="29"/>
       <c r="D61" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="26"/>
-      <c r="C62" s="22" t="s">
+      <c r="E61" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="40"/>
+      <c r="C62" s="27" t="s">
         <v>94</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="26"/>
-      <c r="C63" s="23"/>
+      <c r="E62" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="40"/>
+      <c r="C63" s="28"/>
       <c r="D63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="26"/>
-      <c r="C64" s="23"/>
+      <c r="E63" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="40"/>
+      <c r="C64" s="28"/>
       <c r="D64" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E64" s="11"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="26"/>
-      <c r="C65" s="23"/>
+      <c r="E64" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="40"/>
+      <c r="C65" s="28"/>
       <c r="D65" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E65" s="11"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="26"/>
-      <c r="C66" s="24"/>
+      <c r="E65" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="40"/>
+      <c r="C66" s="29"/>
       <c r="D66" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E66" s="11"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="26"/>
-      <c r="C67" s="16" t="s">
+      <c r="E66" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="40"/>
+      <c r="C67" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E67" s="11"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="26"/>
-      <c r="C68" s="16"/>
+      <c r="E67" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="40"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E68" s="11"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="26"/>
-      <c r="C69" s="16"/>
+      <c r="E68" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="40"/>
+      <c r="C69" s="37"/>
       <c r="D69" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E69" s="11"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="26"/>
-      <c r="C70" s="16"/>
+      <c r="E69" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="40"/>
+      <c r="C70" s="37"/>
       <c r="D70" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E70" s="11"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="26"/>
-      <c r="C71" s="16"/>
+      <c r="E70" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="40"/>
+      <c r="C71" s="37"/>
       <c r="D71" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E71" s="11"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="26"/>
-      <c r="C72" s="16"/>
+      <c r="E71" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="40"/>
+      <c r="C72" s="37"/>
       <c r="D72" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E72" s="11"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="26"/>
-      <c r="C73" s="16"/>
+      <c r="E72" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="40"/>
+      <c r="C73" s="37"/>
       <c r="D73" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E73" s="11"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="26"/>
-      <c r="C74" s="16"/>
+      <c r="E73" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="40"/>
+      <c r="C74" s="37"/>
       <c r="D74" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E74" s="11"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="26"/>
-      <c r="C75" s="16"/>
+      <c r="E74" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="40"/>
+      <c r="C75" s="37"/>
       <c r="D75" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E75" s="11"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="26"/>
-      <c r="C76" s="16"/>
+      <c r="E75" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="40"/>
+      <c r="C76" s="37"/>
       <c r="D76" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E76" s="11"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="26"/>
-      <c r="C77" s="16"/>
+      <c r="E76" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="40"/>
+      <c r="C77" s="37"/>
       <c r="D77" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E77" s="11"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="26"/>
-      <c r="C78" s="16"/>
+      <c r="E77" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="40"/>
+      <c r="C78" s="37"/>
       <c r="D78" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E78" s="11"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="26"/>
-      <c r="C79" s="16"/>
+      <c r="E78" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="40"/>
+      <c r="C79" s="37"/>
       <c r="D79" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E79" s="11"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="26"/>
-      <c r="C80" s="16"/>
+      <c r="E79" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="40"/>
+      <c r="C80" s="37"/>
       <c r="D80" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E80" s="11"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="26"/>
-      <c r="C81" s="16"/>
+      <c r="E80" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="40"/>
+      <c r="C81" s="37"/>
       <c r="D81" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E81" s="11"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="26"/>
-      <c r="C82" s="46" t="s">
+      <c r="E81" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="40"/>
+      <c r="C82" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E82" s="11"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="26"/>
-      <c r="C83" s="47"/>
+      <c r="E82" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="40"/>
+      <c r="C83" s="22"/>
       <c r="D83" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E83" s="11"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="26"/>
-      <c r="C84" s="47"/>
+      <c r="E83" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="40"/>
+      <c r="C84" s="22"/>
       <c r="D84" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E84" s="11"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="26"/>
-      <c r="C85" s="47"/>
+      <c r="E84" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="40"/>
+      <c r="C85" s="22"/>
       <c r="D85" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E85" s="11"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="26"/>
-      <c r="C86" s="48"/>
+      <c r="E85" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="40"/>
+      <c r="C86" s="23"/>
       <c r="D86" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E86" s="11"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="26"/>
-      <c r="C87" s="16" t="s">
+      <c r="E86" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="40"/>
+      <c r="C87" s="37" t="s">
         <v>95</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E87" s="11"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="26"/>
-      <c r="C88" s="16"/>
+      <c r="E87" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="40"/>
+      <c r="C88" s="37"/>
       <c r="D88" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E88" s="11"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="26"/>
-      <c r="C89" s="16"/>
+      <c r="E88" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="40"/>
+      <c r="C89" s="37"/>
       <c r="D89" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E89" s="11"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="26"/>
-      <c r="C90" s="16"/>
+      <c r="E89" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="40"/>
+      <c r="C90" s="37"/>
       <c r="D90" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E90" s="11"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B91" s="26"/>
-      <c r="C91" s="16"/>
+      <c r="E90" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B91" s="40"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E91" s="11"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B92" s="26"/>
-      <c r="C92" s="16"/>
+      <c r="E91" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B92" s="40"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E92" s="11"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B93" s="26"/>
-      <c r="C93" s="16"/>
+      <c r="E92" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B93" s="40"/>
+      <c r="C93" s="37"/>
       <c r="D93" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E93" s="11"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="26"/>
-      <c r="C94" s="16"/>
+      <c r="E93" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B94" s="40"/>
+      <c r="C94" s="37"/>
       <c r="D94" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E94" s="11"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="26"/>
-      <c r="C95" s="16"/>
+      <c r="E94" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B95" s="40"/>
+      <c r="C95" s="37"/>
       <c r="D95" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E95" s="11"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="26"/>
-      <c r="C96" s="16"/>
+      <c r="E95" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B96" s="40"/>
+      <c r="C96" s="37"/>
       <c r="D96" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E96" s="11"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="26"/>
-      <c r="C97" s="16"/>
+      <c r="E96" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B97" s="40"/>
+      <c r="C97" s="37"/>
       <c r="D97" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E97" s="11"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="26"/>
-      <c r="C98" s="16"/>
+      <c r="E97" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B98" s="40"/>
+      <c r="C98" s="37"/>
       <c r="D98" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E98" s="11"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="26"/>
-      <c r="C99" s="16"/>
+      <c r="E98" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="40"/>
+      <c r="C99" s="37"/>
       <c r="D99" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E99" s="11"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B100" s="26"/>
-      <c r="C100" s="16"/>
+      <c r="E99" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B100" s="40"/>
+      <c r="C100" s="37"/>
       <c r="D100" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E100" s="11"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B101" s="26"/>
-      <c r="C101" s="16"/>
+      <c r="E100" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B101" s="40"/>
+      <c r="C101" s="37"/>
       <c r="D101" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E101" s="11"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B102" s="26"/>
-      <c r="C102" s="16"/>
+      <c r="E101" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B102" s="40"/>
+      <c r="C102" s="37"/>
       <c r="D102" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E102" s="11"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="26"/>
-      <c r="C103" s="16"/>
+      <c r="E102" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B103" s="40"/>
+      <c r="C103" s="37"/>
       <c r="D103" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E103" s="11"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="26"/>
-      <c r="C104" s="16"/>
+      <c r="E103" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B104" s="40"/>
+      <c r="C104" s="37"/>
       <c r="D104" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E104" s="11"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B105" s="26"/>
-      <c r="C105" s="16"/>
+      <c r="E104" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B105" s="40"/>
+      <c r="C105" s="37"/>
       <c r="D105" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E105" s="11"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B106" s="26"/>
-      <c r="C106" s="16"/>
+      <c r="E105" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B106" s="40"/>
+      <c r="C106" s="37"/>
       <c r="D106" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E106" s="11"/>
-    </row>
-    <row r="107" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="28"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="12" t="s">
+      <c r="E106" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B107" s="41"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E107" s="13"/>
+      <c r="E107" s="52" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="C56:C61"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="C50:C55"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C43:C46"/>
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="C38:C42"/>
     <mergeCell ref="B7:B22"/>
@@ -2579,11 +2726,11 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="C56:C61"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="C50:C55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2592,12 +2739,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2605,19 +2752,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
@@ -2626,7 +2773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
@@ -2634,12 +2781,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
@@ -2647,7 +2794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
@@ -2655,33 +2802,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2689,12 +2836,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2703,7 +2850,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
         <v>23</v>
       </c>
